--- a/Marketing/iowa.roomme.xlsx
+++ b/Marketing/iowa.roomme.xlsx
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">

--- a/Marketing/iowa.roomme.xlsx
+++ b/Marketing/iowa.roomme.xlsx
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="B206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="B215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="B216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="B221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="B224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
